--- a/20250710_req_filtros/doc/Copia de Integración BULK (003).xlsx
+++ b/20250710_req_filtros/doc/Copia de Integración BULK (003).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Paso\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22199CC4-1237-471A-87AE-D5AC736AF09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Detalle Envíos" sheetId="1" state="hidden" r:id="rId1"/>
@@ -682,7 +676,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -920,6 +914,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,8 +937,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,7 +984,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1039,7 +1033,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,7 +1082,7 @@
         <xdr:cNvPr id="3" name="Rectángulo: esquinas redondeadas 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1146,7 +1140,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1211,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1283,7 +1277,7 @@
         <xdr:cNvPr id="6" name="Flecha: a la derecha 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1337,7 @@
         <xdr:cNvPr id="7" name="Flecha: a la derecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1397,7 @@
         <xdr:cNvPr id="8" name="Flecha: a la derecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1457,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1528,7 @@
         <xdr:cNvPr id="10" name="Rombo 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1599,7 @@
         <xdr:cNvPr id="11" name="Flecha: a la derecha 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1659,7 @@
         <xdr:cNvPr id="12" name="Flecha: a la derecha 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1719,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1791,7 +1785,7 @@
         <xdr:cNvPr id="14" name="Flecha: a la derecha 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1845,7 @@
         <xdr:cNvPr id="15" name="Rectángulo 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1911,7 @@
         <xdr:cNvPr id="16" name="Rectángulo 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1977,7 @@
         <xdr:cNvPr id="17" name="Rectángulo 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2048,7 @@
         <xdr:cNvPr id="19" name="Rectángulo 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2114,7 @@
         <xdr:cNvPr id="20" name="Rectángulo 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2180,7 @@
         <xdr:cNvPr id="21" name="Rectángulo 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2251,7 @@
         <xdr:cNvPr id="22" name="Rombo 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2318,7 @@
         <xdr:cNvPr id="23" name="Flecha: a la derecha 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2378,7 @@
         <xdr:cNvPr id="24" name="Rectángulo 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2444,7 @@
         <xdr:cNvPr id="25" name="Rectángulo 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2516,7 +2510,7 @@
         <xdr:cNvPr id="27" name="Conector: angular 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2565,7 @@
         <xdr:cNvPr id="29" name="Conector: angular 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2620,7 @@
         <xdr:cNvPr id="40" name="Conector recto de flecha 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2676,7 @@
         <xdr:cNvPr id="41" name="Rectángulo 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2753,7 @@
         <xdr:cNvPr id="42" name="Flecha: a la derecha 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2813,7 @@
         <xdr:cNvPr id="43" name="Rectángulo 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2884,7 @@
         <xdr:cNvPr id="44" name="Flecha: a la derecha 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2944,7 @@
         <xdr:cNvPr id="45" name="Rectángulo 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3015,7 @@
         <xdr:cNvPr id="46" name="Flecha: a la derecha 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3075,7 @@
         <xdr:cNvPr id="47" name="Rectángulo 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3152,7 +3146,7 @@
         <xdr:cNvPr id="53" name="Conector: angular 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3207,7 +3201,7 @@
         <xdr:cNvPr id="59" name="Conector: angular 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3256,7 @@
         <xdr:cNvPr id="64" name="Rectángulo 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3333,7 +3327,7 @@
         <xdr:cNvPr id="66" name="Conector: angular 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3389,7 +3383,7 @@
         <xdr:cNvPr id="68" name="Conector: angular 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3439,7 @@
         <xdr:cNvPr id="70" name="Rectángulo 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3516,7 +3510,7 @@
         <xdr:cNvPr id="71" name="Flecha: a la derecha 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3576,7 +3570,7 @@
         <xdr:cNvPr id="72" name="Diagrama de flujo: datos 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3636,7 @@
         <xdr:cNvPr id="73" name="Flecha: a la derecha 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3702,7 +3696,7 @@
         <xdr:cNvPr id="74" name="Rectángulo 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3768,7 +3762,7 @@
         <xdr:cNvPr id="75" name="Rectángulo 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3839,7 +3833,7 @@
         <xdr:cNvPr id="76" name="Flecha: a la derecha 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3893,7 @@
         <xdr:cNvPr id="77" name="Rectángulo 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3965,7 +3959,7 @@
         <xdr:cNvPr id="78" name="Diagrama de flujo: datos 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4036,7 +4030,7 @@
         <xdr:cNvPr id="79" name="Flecha: a la derecha 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4096,7 +4090,7 @@
         <xdr:cNvPr id="80" name="Rectángulo 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4162,7 +4156,7 @@
         <xdr:cNvPr id="81" name="Flecha: a la derecha 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4222,7 +4216,7 @@
         <xdr:cNvPr id="52" name="Rectángulo 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4293,7 +4287,7 @@
         <xdr:cNvPr id="57" name="Rectángulo 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4370,7 +4364,7 @@
         <xdr:cNvPr id="60" name="Rectángulo 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4721,14 +4715,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4754,19 +4748,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -5511,7 +5505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5537,19 +5531,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -6294,7 +6288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6317,15 +6311,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B45" sqref="B45:C93"/>
+      <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6385,27 +6379,27 @@
       <c r="X2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
     </row>
     <row r="4" spans="1:25" s="12" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B4" s="25" t="s">
@@ -6508,7 +6502,7 @@
       <c r="Y5" s="14"/>
     </row>
     <row r="6" spans="1:25" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -6580,7 +6574,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="9" t="s">
         <v>74</v>
       </c>
@@ -6650,7 +6644,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="9" t="s">
         <v>79</v>
       </c>
@@ -6680,7 +6674,7 @@
       <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="10" t="s">
         <v>81</v>
       </c>
@@ -6732,7 +6726,7 @@
       <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="10" t="s">
         <v>82</v>
       </c>
@@ -6774,7 +6768,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="9" t="s">
         <v>78</v>
       </c>
@@ -6804,7 +6798,7 @@
       <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="10" t="s">
         <v>194</v>
       </c>
@@ -6842,7 +6836,7 @@
       <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="10" t="s">
         <v>195</v>
       </c>
@@ -6897,13 +6891,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="4" customFormat="1" ht="14.45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="1:25" s="4" customFormat="1" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E14" s="10"/>
@@ -6927,13 +6921,13 @@
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="35" t="s">
+    <row r="15" spans="1:25" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="10"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -6955,13 +6949,13 @@
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="35" t="s">
+    <row r="16" spans="1:25" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="10"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -6983,13 +6977,13 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="35" t="s">
+    <row r="17" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="10"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -7011,13 +7005,13 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="10"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -7039,13 +7033,13 @@
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
     </row>
-    <row r="19" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="34" t="s">
+    <row r="19" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E19" s="10"/>
@@ -7069,13 +7063,13 @@
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
     </row>
-    <row r="20" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="35" t="s">
+    <row r="20" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="10"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -7097,13 +7091,13 @@
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
     </row>
-    <row r="21" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="35" t="s">
+    <row r="21" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="10"/>
       <c r="F21" s="16" t="s">
         <v>113</v>
@@ -7161,13 +7155,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="35" t="s">
+    <row r="22" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="10"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -7189,13 +7183,13 @@
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
     </row>
-    <row r="23" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="10"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -7217,13 +7211,13 @@
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="35" t="s">
+    <row r="24" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="10"/>
       <c r="F24" s="16" t="s">
         <v>113</v>
@@ -7269,13 +7263,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="10"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -7297,13 +7291,13 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
     </row>
-    <row r="26" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="35" t="s">
+    <row r="26" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="10"/>
       <c r="F26" s="16" t="s">
         <v>113</v>
@@ -7351,13 +7345,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="35" t="s">
+    <row r="27" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="10"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -7379,13 +7373,13 @@
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
     </row>
-    <row r="28" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="35" t="s">
+    <row r="28" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="10"/>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -7407,13 +7401,13 @@
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
     </row>
-    <row r="29" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="35" t="s">
+    <row r="29" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
       <c r="E29" s="10"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -7435,13 +7429,13 @@
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="35" t="s">
+    <row r="30" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="10"/>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -7463,13 +7457,13 @@
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
     </row>
-    <row r="31" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="35" t="s">
+    <row r="31" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="10"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -7491,13 +7485,13 @@
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
     </row>
-    <row r="32" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="35" t="s">
+    <row r="32" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="10"/>
       <c r="F32" s="16" t="s">
         <v>113</v>
@@ -7543,13 +7537,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="35" t="s">
+    <row r="33" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="10"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -7571,13 +7565,13 @@
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
     </row>
-    <row r="34" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="35" t="s">
+    <row r="34" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="10"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -7599,13 +7593,13 @@
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
     </row>
-    <row r="35" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="35" t="s">
+    <row r="35" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="10"/>
       <c r="F35" s="16" t="s">
         <v>113</v>
@@ -7653,13 +7647,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="35" t="s">
+    <row r="36" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="10"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -7681,13 +7675,13 @@
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
     </row>
-    <row r="37" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="35" t="s">
+    <row r="37" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="10"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -7709,13 +7703,13 @@
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
     </row>
-    <row r="38" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="10"/>
       <c r="F38" s="16" t="s">
         <v>113</v>
@@ -7761,13 +7755,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="35" t="s">
+    <row r="39" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="10"/>
       <c r="F39" s="16" t="s">
         <v>113</v>
@@ -7813,13 +7807,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="10"/>
       <c r="F40" s="16" t="s">
         <v>113</v>
@@ -7865,13 +7859,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="34" t="s">
+    <row r="41" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35" t="s">
+      <c r="C41" s="28"/>
+      <c r="D41" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E41" s="10"/>
@@ -7895,13 +7889,13 @@
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
     </row>
-    <row r="42" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="35" t="s">
+    <row r="42" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="10"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -7939,13 +7933,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="35" t="s">
+    <row r="43" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="10"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -7967,13 +7961,13 @@
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
     </row>
-    <row r="44" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="35" t="s">
+    <row r="44" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="10"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -7995,15 +7989,15 @@
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
     </row>
-    <row r="45" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="34" t="s">
+    <row r="45" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E45" s="10"/>
@@ -8027,13 +8021,13 @@
       <c r="W45" s="16"/>
       <c r="X45" s="16"/>
     </row>
-    <row r="46" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="35" t="s">
+    <row r="46" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="10"/>
       <c r="F46" s="16" t="s">
         <v>113</v>
@@ -8059,13 +8053,13 @@
       <c r="W46" s="16"/>
       <c r="X46" s="16"/>
     </row>
-    <row r="47" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="35" t="s">
+    <row r="47" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="10"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16" t="s">
@@ -8091,13 +8085,13 @@
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
     </row>
-    <row r="48" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="35" t="s">
+    <row r="48" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="10"/>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
@@ -8123,13 +8117,13 @@
       <c r="W48" s="16"/>
       <c r="X48" s="16"/>
     </row>
-    <row r="49" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="34" t="s">
+    <row r="49" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E49" s="10"/>
@@ -8153,13 +8147,13 @@
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
     </row>
-    <row r="50" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="35" t="s">
+    <row r="50" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="10"/>
       <c r="F50" s="16" t="s">
         <v>113</v>
@@ -8191,13 +8185,13 @@
       <c r="W50" s="16"/>
       <c r="X50" s="16"/>
     </row>
-    <row r="51" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="35" t="s">
+    <row r="51" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="10"/>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
@@ -8225,13 +8219,13 @@
       <c r="W51" s="16"/>
       <c r="X51" s="16"/>
     </row>
-    <row r="52" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="35" t="s">
+    <row r="52" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="10"/>
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
@@ -8256,14 +8250,14 @@
       <c r="X52" s="16"/>
     </row>
     <row r="53" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="34" t="s">
+      <c r="A53" s="32"/>
+      <c r="B53" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E53" s="10"/>
@@ -8288,12 +8282,12 @@
       <c r="X53" s="16"/>
     </row>
     <row r="54" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="35" t="s">
+      <c r="A54" s="32"/>
+      <c r="B54" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="10"/>
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
@@ -8318,12 +8312,12 @@
       <c r="X54" s="16"/>
     </row>
     <row r="55" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="35" t="s">
+      <c r="A55" s="32"/>
+      <c r="B55" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="10"/>
       <c r="F55" s="16" t="s">
         <v>113</v>
@@ -8366,14 +8360,14 @@
       <c r="X55" s="16"/>
     </row>
     <row r="56" spans="1:24" s="4" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="34" t="s">
+      <c r="A56" s="32"/>
+      <c r="B56" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E56" s="10"/>
@@ -8398,12 +8392,12 @@
       <c r="X56" s="17"/>
     </row>
     <row r="57" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="35" t="s">
+      <c r="A57" s="32"/>
+      <c r="B57" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="10"/>
       <c r="F57" s="16"/>
       <c r="G57" s="16"/>
@@ -8428,12 +8422,12 @@
       <c r="X57" s="16"/>
     </row>
     <row r="58" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="35" t="s">
+      <c r="A58" s="32"/>
+      <c r="B58" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="10"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -8457,15 +8451,15 @@
       <c r="W58" s="16"/>
       <c r="X58" s="16"/>
     </row>
-    <row r="59" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="34" t="s">
+    <row r="59" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="28" t="s">
         <v>193</v>
       </c>
       <c r="E59" s="10"/>
@@ -8489,13 +8483,13 @@
       <c r="W59" s="16"/>
       <c r="X59" s="16"/>
     </row>
-    <row r="60" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="35" t="s">
+    <row r="60" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="10"/>
       <c r="F60" s="16" t="s">
         <v>113</v>
@@ -8541,13 +8535,13 @@
       </c>
       <c r="X60" s="16"/>
     </row>
-    <row r="61" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="35" t="s">
+    <row r="61" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="10"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
@@ -8579,13 +8573,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="35" t="s">
+    <row r="62" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="10"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -8612,12 +8606,12 @@
       <c r="X62" s="16"/>
     </row>
     <row r="63" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35" t="s">
+      <c r="C63" s="28"/>
+      <c r="D63" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E63" s="10"/>
@@ -8642,12 +8636,12 @@
       <c r="X63" s="16"/>
     </row>
     <row r="64" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="32"/>
+      <c r="B64" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="10"/>
       <c r="F64" s="16" t="s">
         <v>113</v>
@@ -8694,12 +8688,12 @@
       <c r="X64" s="16"/>
     </row>
     <row r="65" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="35" t="s">
+      <c r="A65" s="32"/>
+      <c r="B65" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="10"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
@@ -8722,12 +8716,12 @@
       <c r="X65" s="16"/>
     </row>
     <row r="66" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="35" t="s">
+      <c r="A66" s="32"/>
+      <c r="B66" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="10"/>
       <c r="F66" s="16" t="s">
         <v>113</v>
@@ -8774,14 +8768,14 @@
       <c r="X66" s="16"/>
     </row>
     <row r="67" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="34" t="s">
+      <c r="A67" s="32"/>
+      <c r="B67" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E67" s="10"/>
@@ -8806,12 +8800,12 @@
       <c r="X67" s="16"/>
     </row>
     <row r="68" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="35" t="s">
+      <c r="A68" s="32"/>
+      <c r="B68" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="10"/>
       <c r="F68" s="16" t="s">
         <v>113</v>
@@ -8872,12 +8866,12 @@
       </c>
     </row>
     <row r="69" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="35" t="s">
+      <c r="A69" s="32"/>
+      <c r="B69" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="10"/>
       <c r="F69" s="16" t="s">
         <v>113</v>
@@ -8938,12 +8932,12 @@
       </c>
     </row>
     <row r="70" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="35" t="s">
+      <c r="A70" s="32"/>
+      <c r="B70" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
       <c r="E70" s="10"/>
       <c r="F70" s="16" t="s">
         <v>113</v>
@@ -9004,12 +8998,12 @@
       </c>
     </row>
     <row r="71" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="35" t="s">
+      <c r="A71" s="32"/>
+      <c r="B71" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="10"/>
       <c r="F71" s="16" t="s">
         <v>113</v>
@@ -9070,14 +9064,14 @@
       </c>
     </row>
     <row r="72" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="34" t="s">
+      <c r="A72" s="32"/>
+      <c r="B72" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="35"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="10"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -9100,12 +9094,12 @@
       <c r="X72" s="16"/>
     </row>
     <row r="73" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="35" t="s">
+      <c r="A73" s="32"/>
+      <c r="B73" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
       <c r="E73" s="10"/>
       <c r="F73" s="16" t="s">
         <v>113</v>
@@ -9166,12 +9160,12 @@
       </c>
     </row>
     <row r="74" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="35" t="s">
+      <c r="A74" s="32"/>
+      <c r="B74" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="10"/>
       <c r="F74" s="16" t="s">
         <v>113</v>
@@ -9232,12 +9226,12 @@
       </c>
     </row>
     <row r="75" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="35" t="s">
+      <c r="A75" s="32"/>
+      <c r="B75" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
       <c r="E75" s="10"/>
       <c r="F75" s="16" t="s">
         <v>113</v>
@@ -9298,12 +9292,12 @@
       </c>
     </row>
     <row r="76" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="35" t="s">
+      <c r="A76" s="32"/>
+      <c r="B76" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="10"/>
       <c r="F76" s="16" t="s">
         <v>113</v>
@@ -9364,14 +9358,14 @@
       </c>
     </row>
     <row r="77" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="34" t="s">
+      <c r="A77" s="32"/>
+      <c r="B77" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E77" s="10"/>
@@ -9396,12 +9390,12 @@
       <c r="X77" s="16"/>
     </row>
     <row r="78" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="35" t="s">
+      <c r="A78" s="32"/>
+      <c r="B78" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
       <c r="E78" s="10"/>
       <c r="F78" s="16" t="s">
         <v>113</v>
@@ -9462,12 +9456,12 @@
       </c>
     </row>
     <row r="79" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="35" t="s">
+      <c r="A79" s="32"/>
+      <c r="B79" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
       <c r="E79" s="10"/>
       <c r="F79" s="16" t="s">
         <v>113</v>
@@ -9528,12 +9522,12 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="35" t="s">
+      <c r="A80" s="32"/>
+      <c r="B80" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="10"/>
       <c r="F80" s="16" t="s">
         <v>113</v>
@@ -9594,12 +9588,12 @@
       </c>
     </row>
     <row r="81" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="35" t="s">
+      <c r="A81" s="32"/>
+      <c r="B81" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="10"/>
       <c r="F81" s="16" t="s">
         <v>113</v>
@@ -9660,14 +9654,14 @@
       </c>
     </row>
     <row r="82" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="34" t="s">
+      <c r="A82" s="32"/>
+      <c r="B82" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D82" s="35" t="s">
+      <c r="D82" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E82" s="10"/>
@@ -9692,12 +9686,12 @@
       <c r="X82" s="16"/>
     </row>
     <row r="83" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="35" t="s">
+      <c r="A83" s="32"/>
+      <c r="B83" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
       <c r="E83" s="10"/>
       <c r="F83" s="16"/>
       <c r="G83" s="16"/>
@@ -9730,12 +9724,12 @@
       </c>
     </row>
     <row r="84" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="35" t="s">
+      <c r="A84" s="32"/>
+      <c r="B84" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
       <c r="E84" s="10"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -9768,14 +9762,14 @@
       </c>
     </row>
     <row r="85" spans="1:24" s="4" customFormat="1" ht="14.45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="34" t="s">
+      <c r="A85" s="32"/>
+      <c r="B85" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="D85" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E85" s="10"/>
@@ -9800,12 +9794,12 @@
       <c r="X85" s="17"/>
     </row>
     <row r="86" spans="1:24" s="4" customFormat="1" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="35" t="s">
+      <c r="A86" s="32"/>
+      <c r="B86" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
       <c r="E86" s="9"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
@@ -9828,12 +9822,12 @@
       <c r="X86" s="17"/>
     </row>
     <row r="87" spans="1:24" s="4" customFormat="1" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="35" t="s">
+      <c r="A87" s="32"/>
+      <c r="B87" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="9"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
@@ -9856,14 +9850,14 @@
       <c r="X87" s="17"/>
     </row>
     <row r="88" spans="1:24" s="4" customFormat="1" ht="14.45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="34" t="s">
+      <c r="A88" s="32"/>
+      <c r="B88" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E88" s="10"/>
@@ -9888,12 +9882,12 @@
       <c r="X88" s="17"/>
     </row>
     <row r="89" spans="1:24" s="4" customFormat="1" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="35" t="s">
+      <c r="A89" s="32"/>
+      <c r="B89" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="9"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
@@ -9916,12 +9910,12 @@
       <c r="X89" s="17"/>
     </row>
     <row r="90" spans="1:24" s="4" customFormat="1" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="35" t="s">
+      <c r="A90" s="32"/>
+      <c r="B90" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="9"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
@@ -9944,12 +9938,12 @@
       <c r="X90" s="17"/>
     </row>
     <row r="91" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-      <c r="B91" s="35" t="s">
+      <c r="A91" s="32"/>
+      <c r="B91" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
       <c r="E91" s="10"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
@@ -9972,12 +9966,12 @@
       <c r="X91" s="16"/>
     </row>
     <row r="92" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="35" t="s">
+      <c r="A92" s="32"/>
+      <c r="B92" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
       <c r="E92" s="10"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -10000,14 +9994,14 @@
       <c r="X92" s="16"/>
     </row>
     <row r="93" spans="1:24" s="4" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="34" t="s">
+      <c r="A93" s="32"/>
+      <c r="B93" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D93" s="35" t="s">
+      <c r="D93" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E93" s="10"/>
@@ -10032,12 +10026,12 @@
       <c r="X93" s="17"/>
     </row>
     <row r="94" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="35" t="s">
+      <c r="A94" s="32"/>
+      <c r="B94" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
       <c r="E94" s="10"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
@@ -10072,12 +10066,12 @@
       </c>
     </row>
     <row r="95" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="35" t="s">
+      <c r="A95" s="32"/>
+      <c r="B95" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
       <c r="E95" s="10"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
@@ -10100,12 +10094,12 @@
       <c r="X95" s="16"/>
     </row>
     <row r="96" spans="1:24" s="4" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="34" t="s">
+      <c r="A96" s="32"/>
+      <c r="B96" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="C96" s="34"/>
-      <c r="D96" s="35" t="s">
+      <c r="C96" s="27"/>
+      <c r="D96" s="28" t="s">
         <v>196</v>
       </c>
       <c r="E96" s="10"/>
@@ -10274,7 +10268,7 @@
       </c>
     </row>
     <row r="103" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B103" s="10" t="s">
@@ -10328,7 +10322,7 @@
       <c r="X103" s="16"/>
     </row>
     <row r="104" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="10" t="s">
         <v>1</v>
       </c>
@@ -10394,7 +10388,7 @@
       </c>
     </row>
     <row r="105" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="10" t="s">
         <v>2</v>
       </c>
@@ -10460,7 +10454,7 @@
       </c>
     </row>
     <row r="106" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="10" t="s">
         <v>213</v>
       </c>
@@ -10518,7 +10512,7 @@
       </c>
     </row>
     <row r="107" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="10" t="s">
         <v>200</v>
       </c>
@@ -10572,7 +10566,7 @@
       <c r="X107" s="16"/>
     </row>
     <row r="108" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="10" t="s">
         <v>139</v>
       </c>
@@ -10612,7 +10606,7 @@
       </c>
     </row>
     <row r="109" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="10" t="s">
         <v>5</v>
       </c>
@@ -10678,7 +10672,7 @@
       </c>
     </row>
     <row r="110" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="10" t="s">
         <v>6</v>
       </c>
@@ -10744,7 +10738,7 @@
       </c>
     </row>
     <row r="111" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="29"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="10" t="s">
         <v>7</v>
       </c>
@@ -10810,7 +10804,7 @@
       </c>
     </row>
     <row r="112" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="10" t="s">
         <v>8</v>
       </c>
@@ -10862,7 +10856,7 @@
       <c r="X112" s="16"/>
     </row>
     <row r="113" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="10" t="s">
         <v>9</v>
       </c>
@@ -10914,7 +10908,7 @@
       <c r="X113" s="16"/>
     </row>
     <row r="114" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="10" t="s">
         <v>10</v>
       </c>
@@ -10966,7 +10960,7 @@
       <c r="X114" s="16"/>
     </row>
     <row r="115" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="10" t="s">
         <v>11</v>
       </c>
@@ -10996,7 +10990,7 @@
       <c r="X115" s="16"/>
     </row>
     <row r="116" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="10" t="s">
         <v>12</v>
       </c>
@@ -11026,7 +11020,7 @@
       <c r="X116" s="16"/>
     </row>
     <row r="117" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="10" t="s">
         <v>13</v>
       </c>
@@ -11056,7 +11050,7 @@
       <c r="X117" s="16"/>
     </row>
     <row r="118" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="10" t="s">
         <v>14</v>
       </c>
@@ -11090,7 +11084,7 @@
       <c r="X118" s="16"/>
     </row>
     <row r="119" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="10" t="s">
         <v>17</v>
       </c>
@@ -11126,7 +11120,7 @@
       <c r="X119" s="16"/>
     </row>
     <row r="120" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="10" t="s">
         <v>20</v>
       </c>
@@ -11183,7 +11177,7 @@
       <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:24" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="31" t="s">
+      <c r="A123" s="33" t="s">
         <v>77</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -11215,7 +11209,7 @@
       <c r="X123" s="16"/>
     </row>
     <row r="124" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="10" t="s">
         <v>204</v>
       </c>
@@ -11245,7 +11239,7 @@
       <c r="X124" s="16"/>
     </row>
     <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="10" t="s">
         <v>205</v>
       </c>
@@ -11275,7 +11269,7 @@
       <c r="X125" s="16"/>
     </row>
     <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="10" t="s">
         <v>206</v>
       </c>
@@ -11305,7 +11299,7 @@
       <c r="X126" s="16"/>
     </row>
     <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="10" t="s">
         <v>207</v>
       </c>
@@ -11335,7 +11329,7 @@
       <c r="X127" s="16"/>
     </row>
     <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
+      <c r="A128" s="35"/>
       <c r="B128" s="10" t="s">
         <v>208</v>
       </c>
@@ -11404,11 +11398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/20250710_req_filtros/doc/Copia de Integración BULK (003).xlsx
+++ b/20250710_req_filtros/doc/Copia de Integración BULK (003).xlsx
@@ -984,7 +984,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1033,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1082,7 @@
         <xdr:cNvPr id="3" name="Rectángulo: esquinas redondeadas 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1140,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1211,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1277,7 +1277,7 @@
         <xdr:cNvPr id="6" name="Flecha: a la derecha 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,7 +1337,7 @@
         <xdr:cNvPr id="7" name="Flecha: a la derecha 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
         <xdr:cNvPr id="8" name="Flecha: a la derecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1457,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1528,7 @@
         <xdr:cNvPr id="10" name="Rombo 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1599,7 @@
         <xdr:cNvPr id="11" name="Flecha: a la derecha 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1659,7 @@
         <xdr:cNvPr id="12" name="Flecha: a la derecha 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1719,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1785,7 @@
         <xdr:cNvPr id="14" name="Flecha: a la derecha 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1845,7 @@
         <xdr:cNvPr id="15" name="Rectángulo 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1911,7 @@
         <xdr:cNvPr id="16" name="Rectángulo 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1977,7 @@
         <xdr:cNvPr id="17" name="Rectángulo 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2048,7 @@
         <xdr:cNvPr id="19" name="Rectángulo 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2114,7 @@
         <xdr:cNvPr id="20" name="Rectángulo 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2180,7 @@
         <xdr:cNvPr id="21" name="Rectángulo 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2251,7 +2251,7 @@
         <xdr:cNvPr id="22" name="Rombo 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2318,7 @@
         <xdr:cNvPr id="23" name="Flecha: a la derecha 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2378,7 @@
         <xdr:cNvPr id="24" name="Rectángulo 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2444,7 @@
         <xdr:cNvPr id="25" name="Rectángulo 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2510,7 @@
         <xdr:cNvPr id="27" name="Conector: angular 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,7 +2565,7 @@
         <xdr:cNvPr id="29" name="Conector: angular 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2620,7 @@
         <xdr:cNvPr id="40" name="Conector recto de flecha 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2676,7 @@
         <xdr:cNvPr id="41" name="Rectángulo 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2753,7 @@
         <xdr:cNvPr id="42" name="Flecha: a la derecha 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2813,7 @@
         <xdr:cNvPr id="43" name="Rectángulo 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2884,7 @@
         <xdr:cNvPr id="44" name="Flecha: a la derecha 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2944,7 @@
         <xdr:cNvPr id="45" name="Rectángulo 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3015,7 @@
         <xdr:cNvPr id="46" name="Flecha: a la derecha 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3075,7 @@
         <xdr:cNvPr id="47" name="Rectángulo 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3146,7 +3146,7 @@
         <xdr:cNvPr id="53" name="Conector: angular 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3201,7 @@
         <xdr:cNvPr id="59" name="Conector: angular 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,7 +3256,7 @@
         <xdr:cNvPr id="64" name="Rectángulo 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3327,7 +3327,7 @@
         <xdr:cNvPr id="66" name="Conector: angular 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3383,7 +3383,7 @@
         <xdr:cNvPr id="68" name="Conector: angular 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3439,7 +3439,7 @@
         <xdr:cNvPr id="70" name="Rectángulo 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000046000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +3510,7 @@
         <xdr:cNvPr id="71" name="Flecha: a la derecha 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3570,7 +3570,7 @@
         <xdr:cNvPr id="72" name="Diagrama de flujo: datos 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,7 +3636,7 @@
         <xdr:cNvPr id="73" name="Flecha: a la derecha 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3696,7 +3696,7 @@
         <xdr:cNvPr id="74" name="Rectángulo 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3762,7 +3762,7 @@
         <xdr:cNvPr id="75" name="Rectángulo 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3833,7 +3833,7 @@
         <xdr:cNvPr id="76" name="Flecha: a la derecha 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3893,7 +3893,7 @@
         <xdr:cNvPr id="77" name="Rectángulo 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3959,7 +3959,7 @@
         <xdr:cNvPr id="78" name="Diagrama de flujo: datos 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4030,7 @@
         <xdr:cNvPr id="79" name="Flecha: a la derecha 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00004F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4090,7 +4090,7 @@
         <xdr:cNvPr id="80" name="Rectángulo 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000050000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4156,7 +4156,7 @@
         <xdr:cNvPr id="81" name="Flecha: a la derecha 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000051000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4216,7 +4216,7 @@
         <xdr:cNvPr id="52" name="Rectángulo 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4287,7 +4287,7 @@
         <xdr:cNvPr id="57" name="Rectángulo 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4364,7 @@
         <xdr:cNvPr id="60" name="Rectángulo 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4715,7 +4715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6317,9 +6317,9 @@
   </sheetPr>
   <dimension ref="A1:Y134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D59" sqref="D59"/>
+      <selection pane="topRight" activeCell="B100" sqref="B96:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6891,7 +6891,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="4" customFormat="1" ht="14.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="4" customFormat="1" ht="14.45" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="27" t="s">
         <v>144</v>
@@ -6921,7 +6921,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
     </row>
-    <row r="15" spans="1:25" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="28" t="s">
         <v>145</v>
@@ -6949,7 +6949,7 @@
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
     </row>
-    <row r="16" spans="1:25" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="28" t="s">
         <v>146</v>
@@ -6977,7 +6977,7 @@
       <c r="W16" s="16"/>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="28" t="s">
         <v>147</v>
@@ -7005,7 +7005,7 @@
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
     </row>
-    <row r="18" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="28" t="s">
         <v>148</v>
@@ -7033,7 +7033,7 @@
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
     </row>
-    <row r="19" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="27" t="s">
         <v>75</v>
@@ -7063,7 +7063,7 @@
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
     </row>
-    <row r="20" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="28" t="s">
         <v>126</v>
@@ -7091,7 +7091,7 @@
       <c r="W20" s="16"/>
       <c r="X20" s="16"/>
     </row>
-    <row r="21" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="28" t="s">
         <v>127</v>
@@ -7155,7 +7155,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="28" t="s">
         <v>128</v>
@@ -7183,7 +7183,7 @@
       <c r="W22" s="16"/>
       <c r="X22" s="16"/>
     </row>
-    <row r="23" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="28" t="s">
         <v>118</v>
@@ -7211,7 +7211,7 @@
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="28" t="s">
         <v>119</v>
@@ -7263,7 +7263,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="28" t="s">
         <v>120</v>
@@ -7291,7 +7291,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
     </row>
-    <row r="26" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="28" t="s">
         <v>121</v>
@@ -7345,7 +7345,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="28" t="s">
         <v>122</v>
@@ -7373,7 +7373,7 @@
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
     </row>
-    <row r="28" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="28" t="s">
         <v>123</v>
@@ -7401,7 +7401,7 @@
       <c r="W28" s="16"/>
       <c r="X28" s="16"/>
     </row>
-    <row r="29" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="28" t="s">
         <v>124</v>
@@ -7429,7 +7429,7 @@
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="28" t="s">
         <v>125</v>
@@ -7457,7 +7457,7 @@
       <c r="W30" s="16"/>
       <c r="X30" s="16"/>
     </row>
-    <row r="31" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="28" t="s">
         <v>129</v>
@@ -7485,7 +7485,7 @@
       <c r="W31" s="16"/>
       <c r="X31" s="16"/>
     </row>
-    <row r="32" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="28" t="s">
         <v>130</v>
@@ -7537,7 +7537,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="28" t="s">
         <v>131</v>
@@ -7565,7 +7565,7 @@
       <c r="W33" s="16"/>
       <c r="X33" s="16"/>
     </row>
-    <row r="34" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="28" t="s">
         <v>132</v>
@@ -7593,7 +7593,7 @@
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
     </row>
-    <row r="35" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="28" t="s">
         <v>133</v>
@@ -7647,7 +7647,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="28" t="s">
         <v>134</v>
@@ -7675,7 +7675,7 @@
       <c r="W36" s="16"/>
       <c r="X36" s="16"/>
     </row>
-    <row r="37" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="28" t="s">
         <v>135</v>
@@ -7703,7 +7703,7 @@
       <c r="W37" s="16"/>
       <c r="X37" s="16"/>
     </row>
-    <row r="38" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="28" t="s">
         <v>136</v>
@@ -7755,7 +7755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="28" t="s">
         <v>137</v>
@@ -7807,7 +7807,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="28" t="s">
         <v>138</v>
@@ -7859,7 +7859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="27" t="s">
         <v>91</v>
@@ -7889,7 +7889,7 @@
       <c r="W41" s="16"/>
       <c r="X41" s="16"/>
     </row>
-    <row r="42" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="28" t="s">
         <v>93</v>
@@ -7933,7 +7933,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="28" t="s">
         <v>94</v>
@@ -7961,7 +7961,7 @@
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
     </row>
-    <row r="44" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="28" t="s">
         <v>95</v>
@@ -7989,7 +7989,7 @@
       <c r="W44" s="16"/>
       <c r="X44" s="16"/>
     </row>
-    <row r="45" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="27" t="s">
         <v>15</v>
@@ -8021,7 +8021,7 @@
       <c r="W45" s="16"/>
       <c r="X45" s="16"/>
     </row>
-    <row r="46" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="28" t="s">
         <v>24</v>
@@ -8053,7 +8053,7 @@
       <c r="W46" s="16"/>
       <c r="X46" s="16"/>
     </row>
-    <row r="47" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="28" t="s">
         <v>27</v>
@@ -8085,7 +8085,7 @@
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
     </row>
-    <row r="48" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="28" t="s">
         <v>41</v>
@@ -8249,7 +8249,7 @@
       <c r="W52" s="16"/>
       <c r="X52" s="16"/>
     </row>
-    <row r="53" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="27" t="s">
         <v>197</v>
@@ -8281,7 +8281,7 @@
       <c r="W53" s="16"/>
       <c r="X53" s="16"/>
     </row>
-    <row r="54" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
       <c r="B54" s="28" t="s">
         <v>165</v>
@@ -8311,7 +8311,7 @@
       <c r="W54" s="16"/>
       <c r="X54" s="16"/>
     </row>
-    <row r="55" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="28" t="s">
         <v>166</v>
@@ -8359,7 +8359,7 @@
       <c r="W55" s="16"/>
       <c r="X55" s="16"/>
     </row>
-    <row r="56" spans="1:24" s="4" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="27" t="s">
         <v>100</v>
@@ -8391,7 +8391,7 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
     </row>
-    <row r="57" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="28" t="s">
         <v>162</v>
@@ -8421,7 +8421,7 @@
       <c r="W57" s="16"/>
       <c r="X57" s="16"/>
     </row>
-    <row r="58" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="28" t="s">
         <v>163</v>
@@ -8605,7 +8605,7 @@
       <c r="W62" s="16"/>
       <c r="X62" s="16"/>
     </row>
-    <row r="63" spans="1:24" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="27" t="s">
         <v>150</v>
@@ -8635,7 +8635,7 @@
       <c r="W63" s="16"/>
       <c r="X63" s="16"/>
     </row>
-    <row r="64" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="28" t="s">
         <v>92</v>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="X64" s="16"/>
     </row>
-    <row r="65" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="28" t="s">
         <v>151</v>
@@ -8715,7 +8715,7 @@
       <c r="W65" s="16"/>
       <c r="X65" s="16"/>
     </row>
-    <row r="66" spans="1:24" ht="14.45" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="14.45" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="28" t="s">
         <v>152</v>
@@ -10093,7 +10093,7 @@
       <c r="W95" s="16"/>
       <c r="X95" s="16"/>
     </row>
-    <row r="96" spans="1:24" s="4" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="B96" s="27" t="s">
         <v>174</v>
@@ -10123,7 +10123,7 @@
       <c r="W96" s="17"/>
       <c r="X96" s="17"/>
     </row>
-    <row r="97" spans="1:24" s="4" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" s="4" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="10" t="s">
         <v>175</v>
@@ -10151,7 +10151,7 @@
       <c r="W97" s="17"/>
       <c r="X97" s="17"/>
     </row>
-    <row r="98" spans="1:24" s="4" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" s="4" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="10" t="s">
         <v>176</v>
@@ -10179,7 +10179,7 @@
       <c r="W98" s="17"/>
       <c r="X98" s="17"/>
     </row>
-    <row r="99" spans="1:24" s="4" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" s="4" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
       <c r="B99" s="10" t="s">
         <v>177</v>
@@ -10207,7 +10207,7 @@
       <c r="W99" s="17"/>
       <c r="X99" s="17"/>
     </row>
-    <row r="100" spans="1:24" s="4" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" s="4" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="20" t="s">
         <v>148</v>
